--- a/Mavenintro/src/test/resources/TestDataCore.xlsx
+++ b/Mavenintro/src/test/resources/TestDataCore.xlsx
@@ -3,18 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuvaraj.murugesan\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16125" windowHeight="4995"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
   <si>
     <t>Test case ID</t>
   </si>
@@ -41,9 +37,6 @@
     <t>TC01</t>
   </si>
   <si>
-    <t>Login to OrangeHRM</t>
-  </si>
-  <si>
     <t>open the browser</t>
   </si>
   <si>
@@ -72,6 +65,27 @@
   </si>
   <si>
     <t>clickloginbutton</t>
+  </si>
+  <si>
+    <t>Verify QA Lead</t>
+  </si>
+  <si>
+    <t>Click the Directory button</t>
+  </si>
+  <si>
+    <t>clickDirectory</t>
+  </si>
+  <si>
+    <t>select the QA Lead Job title</t>
+  </si>
+  <si>
+    <t>selectQALead</t>
+  </si>
+  <si>
+    <t>click the search button</t>
+  </si>
+  <si>
+    <t>clicksearch</t>
   </si>
 </sst>
 </file>
@@ -128,10 +142,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -412,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -445,13 +460,13 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -459,13 +474,13 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -473,13 +488,13 @@
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -487,13 +502,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -501,13 +516,55 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Mavenintro/src/test/resources/TestDataCore.xlsx
+++ b/Mavenintro/src/test/resources/TestDataCore.xlsx
@@ -3,6 +3,11 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuvaraj.murugesan\git\Demopj\Mavenintro\src\test\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16125" windowHeight="4995"/>
   </bookViews>
@@ -10,7 +15,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="35">
   <si>
     <t>Test case ID</t>
   </si>
@@ -86,16 +90,63 @@
   </si>
   <si>
     <t>clicksearch</t>
+  </si>
+  <si>
+    <t>Locator</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>xpath = //input[@placeholder='Username']</t>
+  </si>
+  <si>
+    <t>xpath = //input[@placeholder='Password']</t>
+  </si>
+  <si>
+    <t>xpath = //button[@type='submit']</t>
+  </si>
+  <si>
+    <t>xpath = //span[text() = 'Directory']</t>
+  </si>
+  <si>
+    <t>xpath = //button[text()=' Search ']</t>
+  </si>
+  <si>
+    <t>xpath=//label[text()='JobTitle']//following::div                                                                          xpath= //span[text()='Automation Tester']</t>
+  </si>
+  <si>
+    <t>Test data</t>
+  </si>
+  <si>
+    <t>https://opensource-demo.orangehrmlive.com/web/index.php/auth/login</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>admin123</t>
+  </si>
+  <si>
+    <t>firefox</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -139,16 +190,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -427,10 +490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -438,10 +501,12 @@
     <col min="1" max="1" width="14.28515625" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
     <col min="3" max="3" width="33.28515625" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="4" max="4" width="42.5703125" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" customWidth="1"/>
+    <col min="6" max="6" width="68.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -452,10 +517,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -466,10 +537,16 @@
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F2" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -480,10 +557,16 @@
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F3" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -494,10 +577,16 @@
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F4" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -508,10 +597,16 @@
         <v>8</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F5" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -522,10 +617,16 @@
         <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F6" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
@@ -536,24 +637,36 @@
         <v>16</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="3" t="s">
+      <c r="F7" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F8" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>4</v>
       </c>
@@ -564,11 +677,20 @@
         <v>20</v>
       </c>
       <c r="D9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>21</v>
       </c>
+      <c r="F9" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F3" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId2"/>
 </worksheet>
 </file>